--- a/Allianz Return.xlsx
+++ b/Allianz Return.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>170.48%</t>
+          <t>270.48%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>4.06%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -504,7 +504,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.20%</t>
+          <t>7.89%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>248.05%</t>
+          <t>348.05%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.70%</t>
+          <t>5.12%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>178.70%</t>
+          <t>278.70%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>4.19%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -581,12 +581,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>234.48%</t>
+          <t>334.48%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.47%</t>
+          <t>4.95%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>256.30%</t>
+          <t>356.30%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.84%</t>
+          <t>5.21%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>364.18%</t>
+          <t>464.18%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.31%</t>
+          <t>6.33%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>279.00%</t>
+          <t>379.00%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.19%</t>
+          <t>5.47%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>296.49%</t>
+          <t>396.49%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>5.66%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>279.53%</t>
+          <t>379.53%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.20%</t>
+          <t>5.48%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>343.09%</t>
+          <t>443.09%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5.05%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>350.77%</t>
+          <t>450.77%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5.15%</t>
+          <t>6.21%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>358.24%</t>
+          <t>458.24%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.24%</t>
+          <t>6.28%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -851,12 +851,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>370.00%</t>
+          <t>470.00%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5.37%</t>
+          <t>6.39%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>552.95%</t>
+          <t>652.95%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7.08%</t>
+          <t>7.79%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>579.98%</t>
+          <t>679.98%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7.28%</t>
+          <t>7.97%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>697.94%</t>
+          <t>797.94%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8.08%</t>
+          <t>8.66%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>912.51%</t>
+          <t>1012.51%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>9.70%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1535.74%</t>
+          <t>1635.74%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11.55%</t>
+          <t>11.83%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1555.24%</t>
+          <t>1655.24%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11.60%</t>
+          <t>11.88%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1061,12 +1061,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1072.82%</t>
+          <t>1172.82%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9.96%</t>
+          <t>10.35%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>909.59%</t>
+          <t>1009.59%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9.23%</t>
+          <t>9.69%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>900.82%</t>
+          <t>1000.82%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9.19%</t>
+          <t>9.65%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>992.91%</t>
+          <t>1092.91%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9.62%</t>
+          <t>10.04%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,12 +1181,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>924.06%</t>
+          <t>1024.06%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9.30%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>923.41%</t>
+          <t>1023.41%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9.30%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1140.32%</t>
+          <t>1240.32%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10.23%</t>
+          <t>10.60%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>663.27%</t>
+          <t>763.27%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7.86%</t>
+          <t>8.47%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>489.86%</t>
+          <t>589.86%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>7.36%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>509.06%</t>
+          <t>609.06%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6.73%</t>
+          <t>7.49%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>436.89%</t>
+          <t>536.89%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6.08%</t>
+          <t>6.95%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>383.23%</t>
+          <t>483.23%</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>518.53%</t>
+          <t>618.53%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6.80%</t>
+          <t>7.56%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>498.42%</t>
+          <t>598.42%</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6.64%</t>
+          <t>7.42%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>515.70%</t>
+          <t>615.70%</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6.78%</t>
+          <t>7.54%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>454.46%</t>
+          <t>554.46%</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6.24%</t>
+          <t>7.09%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>488.94%</t>
+          <t>588.94%</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>6.55%</t>
+          <t>7.35%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>507.01%</t>
+          <t>607.01%</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6.71%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>531.94%</t>
+          <t>631.94%</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>7.65%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>492.43%</t>
+          <t>592.43%</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6.58%</t>
+          <t>7.38%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>536.65%</t>
+          <t>636.65%</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6.95%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>375.40%</t>
+          <t>475.40%</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5.43%</t>
+          <t>6.43%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>295.04%</t>
+          <t>395.04%</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.42%</t>
+          <t>5.65%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>307.19%</t>
+          <t>407.19%</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.59%</t>
+          <t>5.78%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
